--- a/modelos/OBACER4421132/OBACER4421132_Sell in_metricas.xlsx
+++ b/modelos/OBACER4421132/OBACER4421132_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="B2" t="n">
-        <v>3.858660149313936</v>
+        <v>44.80760928573243</v>
       </c>
       <c r="C2" t="n">
-        <v>-99.08985050022599</v>
+        <v>-53.26546653513269</v>
       </c>
       <c r="D2" t="n">
-        <v>100.7788507978775</v>
+        <v>146.2800232982721</v>
       </c>
       <c r="E2" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B3" t="n">
-        <v>61.73444950025589</v>
+        <v>3.717549700659728</v>
       </c>
       <c r="C3" t="n">
-        <v>-27.08820255448996</v>
+        <v>-93.29088399522036</v>
       </c>
       <c r="D3" t="n">
-        <v>157.158942724447</v>
+        <v>113.1706465717875</v>
       </c>
       <c r="E3" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44894</v>
@@ -513,79 +513,79 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B4" t="n">
-        <v>79.92697547421942</v>
+        <v>62.23182537713813</v>
       </c>
       <c r="C4" t="n">
-        <v>-24.34426050084899</v>
+        <v>-30.858253958529</v>
       </c>
       <c r="D4" t="n">
-        <v>179.2631856504017</v>
+        <v>162.2436035415291</v>
       </c>
       <c r="E4" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B5" t="n">
-        <v>50.23737239110468</v>
+        <v>81.10124039123497</v>
       </c>
       <c r="C5" t="n">
-        <v>-53.09498240899971</v>
+        <v>-21.26902381496056</v>
       </c>
       <c r="D5" t="n">
-        <v>148.8597903751131</v>
+        <v>183.4860705692832</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44925</v>
+        <v>44915</v>
       </c>
       <c r="B6" t="n">
-        <v>-55.33294779099408</v>
+        <v>50.15721499910496</v>
       </c>
       <c r="C6" t="n">
-        <v>-154.0062294571232</v>
+        <v>-43.81727542070097</v>
       </c>
       <c r="D6" t="n">
-        <v>42.13143112553316</v>
+        <v>147.3035174556683</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44929</v>
+        <v>44925</v>
       </c>
       <c r="B7" t="n">
-        <v>0.800385147219236</v>
+        <v>-54.84349752326488</v>
       </c>
       <c r="C7" t="n">
-        <v>-100.7129240650041</v>
+        <v>-157.0864689361469</v>
       </c>
       <c r="D7" t="n">
-        <v>103.4878162961984</v>
+        <v>49.17425629153876</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>44922</v>
@@ -593,119 +593,119 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
       <c r="B8" t="n">
-        <v>36.0481050364498</v>
+        <v>2.70279466126648</v>
       </c>
       <c r="C8" t="n">
-        <v>-63.85082559822914</v>
+        <v>-99.02516631793452</v>
       </c>
       <c r="D8" t="n">
-        <v>131.1284217227247</v>
+        <v>106.7799739710936</v>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="B9" t="n">
-        <v>79.98317175305584</v>
+        <v>36.71406781575811</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.99730436986069</v>
+        <v>-72.91207299590447</v>
       </c>
       <c r="D9" t="n">
-        <v>180.8479695645029</v>
+        <v>141.8192663234826</v>
       </c>
       <c r="E9" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
       <c r="B10" t="n">
-        <v>104.7101205211843</v>
+        <v>80.34997271072349</v>
       </c>
       <c r="C10" t="n">
-        <v>4.786983474396542</v>
+        <v>-25.52732393212113</v>
       </c>
       <c r="D10" t="n">
-        <v>204.0836914193746</v>
+        <v>183.0457111420258</v>
       </c>
       <c r="E10" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B11" t="n">
-        <v>88.23875089019381</v>
+        <v>105.2782453429468</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.43344522275357</v>
+        <v>3.797368068442473</v>
       </c>
       <c r="D11" t="n">
-        <v>187.8032091536766</v>
+        <v>206.1365733215512</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B12" t="n">
-        <v>6.047882357884328</v>
+        <v>87.40167310551463</v>
       </c>
       <c r="C12" t="n">
-        <v>-87.44904615803586</v>
+        <v>-19.48389174118769</v>
       </c>
       <c r="D12" t="n">
-        <v>110.8340759776558</v>
+        <v>189.4474270813302</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B13" t="n">
-        <v>40.97991065745</v>
+        <v>6.898612114166006</v>
       </c>
       <c r="C13" t="n">
-        <v>-61.88264931284907</v>
+        <v>-89.96811945504447</v>
       </c>
       <c r="D13" t="n">
-        <v>142.2658599376363</v>
+        <v>103.9641287093884</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>44957</v>
@@ -713,59 +713,59 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B14" t="n">
-        <v>22.1185758901802</v>
+        <v>41.92559931356408</v>
       </c>
       <c r="C14" t="n">
-        <v>-79.54358450362783</v>
+        <v>-62.50111145756892</v>
       </c>
       <c r="D14" t="n">
-        <v>126.6209329370534</v>
+        <v>137.8710823424578</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B15" t="n">
-        <v>-62.39444870354896</v>
+        <v>20.42380641208879</v>
       </c>
       <c r="C15" t="n">
-        <v>-162.2386830268665</v>
+        <v>-79.04228517956703</v>
       </c>
       <c r="D15" t="n">
-        <v>37.64967055350479</v>
+        <v>123.3067091985613</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B16" t="n">
-        <v>46.87875047964819</v>
+        <v>-62.02936723967537</v>
       </c>
       <c r="C16" t="n">
-        <v>-51.74748946559308</v>
+        <v>-159.9888797971592</v>
       </c>
       <c r="D16" t="n">
-        <v>146.5416916062143</v>
+        <v>38.84305729832537</v>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>44978</v>
@@ -773,39 +773,39 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.213001742908411</v>
+        <v>47.52244862231031</v>
       </c>
       <c r="C17" t="n">
-        <v>-109.3242145044875</v>
+        <v>-52.14854807568749</v>
       </c>
       <c r="D17" t="n">
-        <v>94.94349517868288</v>
+        <v>140.4289990756555</v>
       </c>
       <c r="E17" t="n">
         <v>40</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B18" t="n">
-        <v>58.82686392661967</v>
+        <v>-3.137227375275074</v>
       </c>
       <c r="C18" t="n">
-        <v>-38.40089974493894</v>
+        <v>-100.2236558853429</v>
       </c>
       <c r="D18" t="n">
-        <v>166.0862092195336</v>
+        <v>98.79020328969845</v>
       </c>
       <c r="E18" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>44985</v>
@@ -813,201 +813,221 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B19" t="n">
-        <v>72.3063426092765</v>
+        <v>59.46147496148362</v>
       </c>
       <c r="C19" t="n">
-        <v>-24.60660150749469</v>
+        <v>-43.46419249166861</v>
       </c>
       <c r="D19" t="n">
-        <v>170.9477974349967</v>
+        <v>159.825237115866</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B20" t="n">
-        <v>58.5722987628189</v>
+        <v>70.60443541237905</v>
       </c>
       <c r="C20" t="n">
-        <v>-45.00339316580455</v>
+        <v>-31.88199969178268</v>
       </c>
       <c r="D20" t="n">
-        <v>155.3644555991512</v>
+        <v>175.3743894385459</v>
       </c>
       <c r="E20" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B21" t="n">
-        <v>71.48089420078563</v>
+        <v>62.056720056589</v>
       </c>
       <c r="C21" t="n">
-        <v>-27.50809999512657</v>
+        <v>-35.45859908514421</v>
       </c>
       <c r="D21" t="n">
-        <v>167.443195714472</v>
+        <v>167.4689102024099</v>
       </c>
       <c r="E21" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B22" t="n">
-        <v>91.4688542748942</v>
+        <v>67.25036660781966</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.38868212897808</v>
+        <v>-33.53129548859092</v>
       </c>
       <c r="D22" t="n">
-        <v>185.3760654219348</v>
+        <v>165.5507061607875</v>
       </c>
       <c r="E22" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B23" t="n">
-        <v>125.2811223553835</v>
+        <v>93.85237688148618</v>
       </c>
       <c r="C23" t="n">
-        <v>32.05331138846395</v>
+        <v>-8.1285142301217</v>
       </c>
       <c r="D23" t="n">
-        <v>230.5866067924268</v>
+        <v>189.3659008820904</v>
       </c>
       <c r="E23" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B24" t="n">
-        <v>150.2927379963206</v>
+        <v>123.0668381169501</v>
       </c>
       <c r="C24" t="n">
-        <v>47.07508404491036</v>
+        <v>24.12360617686604</v>
       </c>
       <c r="D24" t="n">
-        <v>251.2414729098366</v>
+        <v>218.7384449871063</v>
       </c>
       <c r="E24" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="B25" t="n">
-        <v>132.6020254396248</v>
+        <v>151.2364462553577</v>
       </c>
       <c r="C25" t="n">
-        <v>36.41335304858152</v>
+        <v>61.11973866846158</v>
       </c>
       <c r="D25" t="n">
-        <v>231.1083929880652</v>
+        <v>247.3868906286974</v>
       </c>
       <c r="E25" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B26" t="n">
-        <v>160.048905067059</v>
+        <v>134.3551661039059</v>
       </c>
       <c r="C26" t="n">
-        <v>64.26119604173584</v>
+        <v>29.88716300701844</v>
       </c>
       <c r="D26" t="n">
-        <v>263.5714707677671</v>
+        <v>232.1798816993191</v>
       </c>
       <c r="E26" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B27" t="n">
-        <v>121.8290940477274</v>
+        <v>161.3927734185692</v>
       </c>
       <c r="C27" t="n">
-        <v>29.98296178019275</v>
+        <v>52.44567635923975</v>
       </c>
       <c r="D27" t="n">
-        <v>216.6398624733494</v>
+        <v>257.8427898131615</v>
       </c>
       <c r="E27" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B28" t="n">
+        <v>119.5890925125071</v>
+      </c>
+      <c r="C28" t="n">
+        <v>28.33681723589142</v>
+      </c>
+      <c r="D28" t="n">
+        <v>224.7542123973465</v>
+      </c>
+      <c r="E28" t="n">
+        <v>80</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B28" t="n">
-        <v>72.20877993110162</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-18.36432298388756</v>
-      </c>
-      <c r="D28" t="n">
-        <v>174.2883728767396</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="B29" t="n">
+        <v>74.03496947192487</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-28.17080813257055</v>
+      </c>
+      <c r="D29" t="n">
+        <v>166.5803425152259</v>
+      </c>
+      <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F29" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1077,22 +1097,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5560.51419817977</v>
+        <v>5546.100793704068</v>
       </c>
       <c r="C2" t="n">
-        <v>74.56885541685463</v>
+        <v>74.47214777152642</v>
       </c>
       <c r="D2" t="n">
-        <v>62.15985175667606</v>
+        <v>61.84114077092857</v>
       </c>
       <c r="E2" t="n">
-        <v>2.320385925907333</v>
+        <v>2.297313323710286</v>
       </c>
       <c r="F2" t="n">
-        <v>1.025321521212071</v>
+        <v>1.024917074111478</v>
       </c>
       <c r="G2" t="n">
-        <v>1.738990358944119</v>
+        <v>1.715731276529179</v>
       </c>
       <c r="H2" t="n">
         <v>0.75</v>
@@ -1103,22 +1123,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>7523.439823321631</v>
+        <v>7347.01752235775</v>
       </c>
       <c r="C3" t="n">
-        <v>86.73776468944557</v>
+        <v>85.71474506966553</v>
       </c>
       <c r="D3" t="n">
-        <v>79.77891315852563</v>
+        <v>78.74298733351134</v>
       </c>
       <c r="E3" t="n">
-        <v>1.37192769025883</v>
+        <v>1.356580213803174</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6968937267308791</v>
+        <v>0.7471388941389692</v>
       </c>
       <c r="G3" t="n">
-        <v>1.13810364750885</v>
+        <v>1.120370037252082</v>
       </c>
       <c r="H3" t="n">
         <v>0.875</v>
@@ -1129,25 +1149,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>7549.461498697376</v>
+        <v>7845.43926312738</v>
       </c>
       <c r="C4" t="n">
-        <v>86.88763720286894</v>
+        <v>88.57448426678747</v>
       </c>
       <c r="D4" t="n">
-        <v>59.28097783310284</v>
+        <v>61.82127508754388</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5816767619354568</v>
+        <v>0.5836306399080025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4470356027454949</v>
+        <v>0.4912610436262808</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6245763411421441</v>
+        <v>0.6385027890500563</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8571428571428577</v>
+        <v>0.8181818181818183</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACER4421132/OBACER4421132_Sell in_metricas.xlsx
+++ b/modelos/OBACER4421132/OBACER4421132_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.576311311987519</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-93.41689306181532</v>
+      </c>
+      <c r="D2" t="n">
+        <v>94.27572802127426</v>
+      </c>
+      <c r="E2" t="n">
+        <v>130</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B2" t="n">
-        <v>44.80760928573243</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-53.26546653513269</v>
-      </c>
-      <c r="D2" t="n">
-        <v>146.2800232982721</v>
-      </c>
-      <c r="E2" t="n">
-        <v>170</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44897</v>
+        <v>44901</v>
       </c>
       <c r="B3" t="n">
-        <v>3.717549700659728</v>
+        <v>60.69072550200948</v>
       </c>
       <c r="C3" t="n">
-        <v>-93.29088399522036</v>
+        <v>-29.01382508374159</v>
       </c>
       <c r="D3" t="n">
-        <v>113.1706465717875</v>
+        <v>160.2179200379083</v>
       </c>
       <c r="E3" t="n">
-        <v>130</v>
+        <v>360</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44894</v>
@@ -513,79 +513,79 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B4" t="n">
+        <v>81.24623251223241</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-22.83639020751835</v>
+      </c>
+      <c r="D4" t="n">
+        <v>180.0782902458617</v>
+      </c>
+      <c r="E4" t="n">
+        <v>160</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>44901</v>
-      </c>
-      <c r="B4" t="n">
-        <v>62.23182537713813</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-30.858253958529</v>
-      </c>
-      <c r="D4" t="n">
-        <v>162.2436035415291</v>
-      </c>
-      <c r="E4" t="n">
-        <v>360</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>44894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44915</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50.56269999533142</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-48.08316172355487</v>
+      </c>
+      <c r="D5" t="n">
+        <v>152.6136077027701</v>
+      </c>
+      <c r="E5" t="n">
+        <v>70</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>44908</v>
-      </c>
-      <c r="B5" t="n">
-        <v>81.10124039123497</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-21.26902381496056</v>
-      </c>
-      <c r="D5" t="n">
-        <v>183.4860705692832</v>
-      </c>
-      <c r="E5" t="n">
-        <v>160</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>44901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44915</v>
+        <v>44925</v>
       </c>
       <c r="B6" t="n">
-        <v>50.15721499910496</v>
+        <v>-56.7164932929347</v>
       </c>
       <c r="C6" t="n">
-        <v>-43.81727542070097</v>
+        <v>-150.6933847306715</v>
       </c>
       <c r="D6" t="n">
-        <v>147.3035174556683</v>
+        <v>45.30719114152514</v>
       </c>
       <c r="E6" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44925</v>
+        <v>44929</v>
       </c>
       <c r="B7" t="n">
-        <v>-54.84349752326488</v>
+        <v>-1.322574540843528</v>
       </c>
       <c r="C7" t="n">
-        <v>-157.0864689361469</v>
+        <v>-99.79679457162324</v>
       </c>
       <c r="D7" t="n">
-        <v>49.17425629153876</v>
+        <v>96.36143744790513</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>44922</v>
@@ -593,119 +593,119 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44936</v>
+      </c>
+      <c r="B8" t="n">
+        <v>35.48948685209902</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-58.87943193743546</v>
+      </c>
+      <c r="D8" t="n">
+        <v>135.7622790362057</v>
+      </c>
+      <c r="E8" t="n">
+        <v>80</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>44929</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2.70279466126648</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-99.02516631793452</v>
-      </c>
-      <c r="D8" t="n">
-        <v>106.7799739710936</v>
-      </c>
-      <c r="E8" t="n">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="n">
-        <v>44922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>44943</v>
+      </c>
+      <c r="B9" t="n">
+        <v>80.17658117027977</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-21.98129734398752</v>
+      </c>
+      <c r="D9" t="n">
+        <v>185.3515128294738</v>
+      </c>
+      <c r="E9" t="n">
+        <v>170</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>44936</v>
-      </c>
-      <c r="B9" t="n">
-        <v>36.71406781575811</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-72.91207299590447</v>
-      </c>
-      <c r="D9" t="n">
-        <v>141.8192663234826</v>
-      </c>
-      <c r="E9" t="n">
-        <v>80</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>44929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
+        <v>44950</v>
+      </c>
+      <c r="B10" t="n">
+        <v>103.7421975904007</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.531066223633802</v>
+      </c>
+      <c r="D10" t="n">
+        <v>202.4075033233384</v>
+      </c>
+      <c r="E10" t="n">
+        <v>140</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>44943</v>
-      </c>
-      <c r="B10" t="n">
-        <v>80.34997271072349</v>
-      </c>
-      <c r="C10" t="n">
-        <v>-25.52732393212113</v>
-      </c>
-      <c r="D10" t="n">
-        <v>183.0457111420258</v>
-      </c>
-      <c r="E10" t="n">
-        <v>170</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>44936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
+        <v>44957</v>
+      </c>
+      <c r="B11" t="n">
+        <v>88.70755997484108</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-21.60139067661694</v>
+      </c>
+      <c r="D11" t="n">
+        <v>186.9485501792556</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>44950</v>
-      </c>
-      <c r="B11" t="n">
-        <v>105.2782453429468</v>
-      </c>
-      <c r="C11" t="n">
-        <v>3.797368068442473</v>
-      </c>
-      <c r="D11" t="n">
-        <v>206.1365733215512</v>
-      </c>
-      <c r="E11" t="n">
-        <v>140</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>44943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44957</v>
+        <v>44960</v>
       </c>
       <c r="B12" t="n">
-        <v>87.40167310551463</v>
+        <v>6.375608887730088</v>
       </c>
       <c r="C12" t="n">
-        <v>-19.48389174118769</v>
+        <v>-96.31327283820248</v>
       </c>
       <c r="D12" t="n">
-        <v>189.4474270813302</v>
+        <v>102.8170300518623</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44950</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44960</v>
+        <v>44964</v>
       </c>
       <c r="B13" t="n">
-        <v>6.898612114166006</v>
+        <v>41.32454699021567</v>
       </c>
       <c r="C13" t="n">
-        <v>-89.96811945504447</v>
+        <v>-62.63414088021908</v>
       </c>
       <c r="D13" t="n">
-        <v>103.9641287093884</v>
+        <v>146.0653362819062</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>44957</v>
@@ -713,59 +713,59 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
+        <v>44971</v>
+      </c>
+      <c r="B14" t="n">
+        <v>19.75807631355172</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-81.6527592528622</v>
+      </c>
+      <c r="D14" t="n">
+        <v>113.2924651307231</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>44964</v>
-      </c>
-      <c r="B14" t="n">
-        <v>41.92559931356408</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-62.50111145756892</v>
-      </c>
-      <c r="D14" t="n">
-        <v>137.8710823424578</v>
-      </c>
-      <c r="E14" t="n">
-        <v>50</v>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>44957</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="B15" t="n">
-        <v>20.42380641208879</v>
+        <v>-60.7636649408873</v>
       </c>
       <c r="C15" t="n">
-        <v>-79.04228517956703</v>
+        <v>-160.0994385249471</v>
       </c>
       <c r="D15" t="n">
-        <v>123.3067091985613</v>
+        <v>33.88963540126807</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44964</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44980</v>
+        <v>44985</v>
       </c>
       <c r="B16" t="n">
-        <v>-62.02936723967537</v>
+        <v>47.54401926335655</v>
       </c>
       <c r="C16" t="n">
-        <v>-159.9888797971592</v>
+        <v>-51.44215223572564</v>
       </c>
       <c r="D16" t="n">
-        <v>38.84305729832537</v>
+        <v>148.5236484350126</v>
       </c>
       <c r="E16" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>44978</v>
@@ -773,39 +773,39 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44985</v>
+        <v>44988</v>
       </c>
       <c r="B17" t="n">
-        <v>47.52244862231031</v>
+        <v>-3.770480007045137</v>
       </c>
       <c r="C17" t="n">
-        <v>-52.14854807568749</v>
+        <v>-101.5575127789623</v>
       </c>
       <c r="D17" t="n">
-        <v>140.4289990756555</v>
+        <v>96.71630013265151</v>
       </c>
       <c r="E17" t="n">
         <v>40</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44978</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44988</v>
+        <v>44992</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.137227375275074</v>
+        <v>55.84513414003748</v>
       </c>
       <c r="C18" t="n">
-        <v>-100.2236558853429</v>
+        <v>-46.48849651607642</v>
       </c>
       <c r="D18" t="n">
-        <v>98.79020328969845</v>
+        <v>153.9394689428248</v>
       </c>
       <c r="E18" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>44985</v>
@@ -813,221 +813,201 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
+        <v>44999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>62.98927756963982</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-39.45759948303692</v>
+      </c>
+      <c r="D19" t="n">
+        <v>169.5753435560961</v>
+      </c>
+      <c r="E19" t="n">
+        <v>100</v>
+      </c>
+      <c r="F19" s="2" t="n">
         <v>44992</v>
-      </c>
-      <c r="B19" t="n">
-        <v>59.46147496148362</v>
-      </c>
-      <c r="C19" t="n">
-        <v>-43.46419249166861</v>
-      </c>
-      <c r="D19" t="n">
-        <v>159.825237115866</v>
-      </c>
-      <c r="E19" t="n">
-        <v>180</v>
-      </c>
-      <c r="F19" s="2" t="n">
-        <v>44985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
+        <v>45006</v>
+      </c>
+      <c r="B20" t="n">
+        <v>53.61584569811771</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-40.5805468354006</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.1776883901453</v>
+      </c>
+      <c r="E20" t="n">
+        <v>190</v>
+      </c>
+      <c r="F20" s="2" t="n">
         <v>44999</v>
-      </c>
-      <c r="B20" t="n">
-        <v>70.60443541237905</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-31.88199969178268</v>
-      </c>
-      <c r="D20" t="n">
-        <v>175.3743894385459</v>
-      </c>
-      <c r="E20" t="n">
-        <v>100</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>44992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
+        <v>45013</v>
+      </c>
+      <c r="B21" t="n">
+        <v>65.2244384157185</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-37.46755890280617</v>
+      </c>
+      <c r="D21" t="n">
+        <v>166.2275463681024</v>
+      </c>
+      <c r="E21" t="n">
+        <v>150</v>
+      </c>
+      <c r="F21" s="2" t="n">
         <v>45006</v>
-      </c>
-      <c r="B21" t="n">
-        <v>62.056720056589</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-35.45859908514421</v>
-      </c>
-      <c r="D21" t="n">
-        <v>167.4689102024099</v>
-      </c>
-      <c r="E21" t="n">
-        <v>190</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>44999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="B22" t="n">
+        <v>92.48097046371485</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-3.273014374223312</v>
+      </c>
+      <c r="D22" t="n">
+        <v>189.0612928530658</v>
+      </c>
+      <c r="E22" t="n">
+        <v>130</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>45013</v>
-      </c>
-      <c r="B22" t="n">
-        <v>67.25036660781966</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-33.53129548859092</v>
-      </c>
-      <c r="D22" t="n">
-        <v>165.5507061607875</v>
-      </c>
-      <c r="E22" t="n">
-        <v>150</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>45006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
+        <v>45027</v>
+      </c>
+      <c r="B23" t="n">
+        <v>128.303083532324</v>
+      </c>
+      <c r="C23" t="n">
+        <v>30.93369781544865</v>
+      </c>
+      <c r="D23" t="n">
+        <v>235.3946059455965</v>
+      </c>
+      <c r="E23" t="n">
+        <v>90</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>45020</v>
-      </c>
-      <c r="B23" t="n">
-        <v>93.85237688148618</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-8.1285142301217</v>
-      </c>
-      <c r="D23" t="n">
-        <v>189.3659008820904</v>
-      </c>
-      <c r="E23" t="n">
-        <v>130</v>
-      </c>
-      <c r="F23" s="2" t="n">
-        <v>45013</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="B24" t="n">
+        <v>152.6408945393436</v>
+      </c>
+      <c r="C24" t="n">
+        <v>54.27176060188796</v>
+      </c>
+      <c r="D24" t="n">
+        <v>252.8650461933861</v>
+      </c>
+      <c r="E24" t="n">
+        <v>190</v>
+      </c>
+      <c r="F24" s="2" t="n">
         <v>45027</v>
-      </c>
-      <c r="B24" t="n">
-        <v>123.0668381169501</v>
-      </c>
-      <c r="C24" t="n">
-        <v>24.12360617686604</v>
-      </c>
-      <c r="D24" t="n">
-        <v>218.7384449871063</v>
-      </c>
-      <c r="E24" t="n">
-        <v>90</v>
-      </c>
-      <c r="F24" s="2" t="n">
-        <v>45020</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B25" t="n">
+        <v>134.9042665886195</v>
+      </c>
+      <c r="C25" t="n">
+        <v>36.51489561343635</v>
+      </c>
+      <c r="D25" t="n">
+        <v>236.5325293811518</v>
+      </c>
+      <c r="E25" t="n">
+        <v>230</v>
+      </c>
+      <c r="F25" s="2" t="n">
         <v>45034</v>
-      </c>
-      <c r="B25" t="n">
-        <v>151.2364462553577</v>
-      </c>
-      <c r="C25" t="n">
-        <v>61.11973866846158</v>
-      </c>
-      <c r="D25" t="n">
-        <v>247.3868906286974</v>
-      </c>
-      <c r="E25" t="n">
-        <v>190</v>
-      </c>
-      <c r="F25" s="2" t="n">
-        <v>45027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45040</v>
+        <v>45048</v>
       </c>
       <c r="B26" t="n">
-        <v>134.3551661039059</v>
+        <v>159.9143170864482</v>
       </c>
       <c r="C26" t="n">
-        <v>29.88716300701844</v>
+        <v>59.33452819859312</v>
       </c>
       <c r="D26" t="n">
-        <v>232.1798816993191</v>
+        <v>265.7217367380826</v>
       </c>
       <c r="E26" t="n">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45034</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B27" t="n">
+        <v>124.3758605857001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>14.62467154193618</v>
+      </c>
+      <c r="D27" t="n">
+        <v>219.8415064303038</v>
+      </c>
+      <c r="E27" t="n">
+        <v>80</v>
+      </c>
+      <c r="F27" s="2" t="n">
         <v>45048</v>
-      </c>
-      <c r="B27" t="n">
-        <v>161.3927734185692</v>
-      </c>
-      <c r="C27" t="n">
-        <v>52.44567635923975</v>
-      </c>
-      <c r="D27" t="n">
-        <v>257.8427898131615</v>
-      </c>
-      <c r="E27" t="n">
-        <v>170</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>45041</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45055</v>
+        <v>45062</v>
       </c>
       <c r="B28" t="n">
-        <v>119.5890925125071</v>
+        <v>75.3313802974867</v>
       </c>
       <c r="C28" t="n">
-        <v>28.33681723589142</v>
+        <v>-18.65919069320229</v>
       </c>
       <c r="D28" t="n">
-        <v>224.7542123973465</v>
+        <v>171.8246191647931</v>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B29" t="n">
-        <v>74.03496947192487</v>
-      </c>
-      <c r="C29" t="n">
-        <v>-28.17080813257055</v>
-      </c>
-      <c r="D29" t="n">
-        <v>166.5803425152259</v>
-      </c>
-      <c r="E29" t="n">
-        <v>50</v>
-      </c>
-      <c r="F29" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1097,22 +1077,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5546.100793704068</v>
+        <v>5697.341467348241</v>
       </c>
       <c r="C2" t="n">
-        <v>74.47214777152642</v>
+        <v>75.4807357366649</v>
       </c>
       <c r="D2" t="n">
-        <v>61.84114077092857</v>
+        <v>62.88376327506554</v>
       </c>
       <c r="E2" t="n">
-        <v>2.297313323710286</v>
+        <v>2.356828276440028</v>
       </c>
       <c r="F2" t="n">
-        <v>1.024917074111478</v>
+        <v>1.037222110426574</v>
       </c>
       <c r="G2" t="n">
-        <v>1.715731276529179</v>
+        <v>1.738843666437428</v>
       </c>
       <c r="H2" t="n">
         <v>0.75</v>
@@ -1123,22 +1103,22 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>7347.01752235775</v>
+        <v>7370.269990198294</v>
       </c>
       <c r="C3" t="n">
-        <v>85.71474506966553</v>
+        <v>85.85027658777982</v>
       </c>
       <c r="D3" t="n">
-        <v>78.74298733351134</v>
+        <v>78.989748343223</v>
       </c>
       <c r="E3" t="n">
-        <v>1.356580213803174</v>
+        <v>1.385143993462146</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7471388941389692</v>
+        <v>0.696820965580641</v>
       </c>
       <c r="G3" t="n">
-        <v>1.120370037252082</v>
+        <v>1.130026441381842</v>
       </c>
       <c r="H3" t="n">
         <v>0.875</v>
@@ -1149,25 +1129,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>7845.43926312738</v>
+        <v>7777.556744112313</v>
       </c>
       <c r="C4" t="n">
-        <v>88.57448426678747</v>
+        <v>88.19045721682315</v>
       </c>
       <c r="D4" t="n">
-        <v>61.82127508754388</v>
+        <v>60.94681206454345</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5836306399080025</v>
+        <v>0.603189422749324</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4912610436262808</v>
+        <v>0.5060480921612072</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6385027890500563</v>
+        <v>0.652805072444723</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8181818181818183</v>
+        <v>0.8571428571428577</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBACER4421132/OBACER4421132_Sell in_metricas.xlsx
+++ b/modelos/OBACER4421132/OBACER4421132_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,39 +473,39 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44897</v>
+        <v>44894</v>
       </c>
       <c r="B2" t="n">
-        <v>2.576311311987519</v>
+        <v>44.80760928573243</v>
       </c>
       <c r="C2" t="n">
-        <v>-93.41689306181532</v>
+        <v>-52.5255256197211</v>
       </c>
       <c r="D2" t="n">
-        <v>94.27572802127426</v>
+        <v>138.7677088466342</v>
       </c>
       <c r="E2" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44901</v>
+        <v>44897</v>
       </c>
       <c r="B3" t="n">
-        <v>60.69072550200948</v>
+        <v>3.717549700659728</v>
       </c>
       <c r="C3" t="n">
-        <v>-29.01382508374159</v>
+        <v>-96.86520973022206</v>
       </c>
       <c r="D3" t="n">
-        <v>160.2179200379083</v>
+        <v>102.3223523851463</v>
       </c>
       <c r="E3" t="n">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>44894</v>
@@ -513,79 +513,79 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
       <c r="B4" t="n">
-        <v>81.24623251223241</v>
+        <v>62.23182537713813</v>
       </c>
       <c r="C4" t="n">
-        <v>-22.83639020751835</v>
+        <v>-44.61067174835446</v>
       </c>
       <c r="D4" t="n">
-        <v>180.0782902458617</v>
+        <v>167.1227712315167</v>
       </c>
       <c r="E4" t="n">
-        <v>160</v>
+        <v>360</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44915</v>
+        <v>44908</v>
       </c>
       <c r="B5" t="n">
-        <v>50.56269999533142</v>
+        <v>81.10124039123497</v>
       </c>
       <c r="C5" t="n">
-        <v>-48.08316172355487</v>
+        <v>-26.61485533243835</v>
       </c>
       <c r="D5" t="n">
-        <v>152.6136077027701</v>
+        <v>179.0091273074371</v>
       </c>
       <c r="E5" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44908</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44925</v>
+        <v>44915</v>
       </c>
       <c r="B6" t="n">
-        <v>-56.7164932929347</v>
+        <v>50.15721499910496</v>
       </c>
       <c r="C6" t="n">
-        <v>-150.6933847306715</v>
+        <v>-48.31157608813228</v>
       </c>
       <c r="D6" t="n">
-        <v>45.30719114152514</v>
+        <v>149.4091190393455</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44929</v>
+        <v>44925</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.322574540843528</v>
+        <v>-54.84349752326488</v>
       </c>
       <c r="C7" t="n">
-        <v>-99.79679457162324</v>
+        <v>-154.6849021638452</v>
       </c>
       <c r="D7" t="n">
-        <v>96.36143744790513</v>
+        <v>44.28931140078875</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>44922</v>
@@ -593,119 +593,119 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
       <c r="B8" t="n">
-        <v>35.48948685209902</v>
+        <v>2.70279466126648</v>
       </c>
       <c r="C8" t="n">
-        <v>-58.87943193743546</v>
+        <v>-94.02157629967981</v>
       </c>
       <c r="D8" t="n">
-        <v>135.7622790362057</v>
+        <v>102.0755691503036</v>
       </c>
       <c r="E8" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44929</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
       <c r="B9" t="n">
-        <v>80.17658117027977</v>
+        <v>36.71406781575811</v>
       </c>
       <c r="C9" t="n">
-        <v>-21.98129734398752</v>
+        <v>-60.39965230011639</v>
       </c>
       <c r="D9" t="n">
-        <v>185.3515128294738</v>
+        <v>138.845810775167</v>
       </c>
       <c r="E9" t="n">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44936</v>
+        <v>44929</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
       <c r="B10" t="n">
-        <v>103.7421975904007</v>
+        <v>80.34997271072349</v>
       </c>
       <c r="C10" t="n">
-        <v>7.531066223633802</v>
+        <v>-18.78680504595421</v>
       </c>
       <c r="D10" t="n">
-        <v>202.4075033233384</v>
+        <v>180.4676779177732</v>
       </c>
       <c r="E10" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44943</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
       <c r="B11" t="n">
-        <v>88.70755997484108</v>
+        <v>105.2782453429468</v>
       </c>
       <c r="C11" t="n">
-        <v>-21.60139067661694</v>
+        <v>8.37386641343589</v>
       </c>
       <c r="D11" t="n">
-        <v>186.9485501792556</v>
+        <v>201.1444612593776</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44950</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44960</v>
+        <v>44957</v>
       </c>
       <c r="B12" t="n">
-        <v>6.375608887730088</v>
+        <v>87.40167310551463</v>
       </c>
       <c r="C12" t="n">
-        <v>-96.31327283820248</v>
+        <v>-14.0234077418926</v>
       </c>
       <c r="D12" t="n">
-        <v>102.8170300518623</v>
+        <v>187.6665254539799</v>
       </c>
       <c r="E12" t="n">
         <v>20</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44957</v>
+        <v>44950</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44964</v>
+        <v>44960</v>
       </c>
       <c r="B13" t="n">
-        <v>41.32454699021567</v>
+        <v>6.898612114166006</v>
       </c>
       <c r="C13" t="n">
-        <v>-62.63414088021908</v>
+        <v>-95.6582682074467</v>
       </c>
       <c r="D13" t="n">
-        <v>146.0653362819062</v>
+        <v>105.0862579444703</v>
       </c>
       <c r="E13" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>44957</v>
@@ -713,59 +713,59 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44971</v>
+        <v>44964</v>
       </c>
       <c r="B14" t="n">
-        <v>19.75807631355172</v>
+        <v>41.92559931356408</v>
       </c>
       <c r="C14" t="n">
-        <v>-81.6527592528622</v>
+        <v>-60.50885226052553</v>
       </c>
       <c r="D14" t="n">
-        <v>113.2924651307231</v>
+        <v>142.5909284621896</v>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44964</v>
+        <v>44957</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44980</v>
+        <v>44971</v>
       </c>
       <c r="B15" t="n">
-        <v>-60.7636649408873</v>
+        <v>20.42380641208879</v>
       </c>
       <c r="C15" t="n">
-        <v>-160.0994385249471</v>
+        <v>-83.30661601182445</v>
       </c>
       <c r="D15" t="n">
-        <v>33.88963540126807</v>
+        <v>120.6607079310799</v>
       </c>
       <c r="E15" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44978</v>
+        <v>44964</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="B16" t="n">
-        <v>47.54401926335655</v>
+        <v>-62.02936723967537</v>
       </c>
       <c r="C16" t="n">
-        <v>-51.44215223572564</v>
+        <v>-158.5243484714327</v>
       </c>
       <c r="D16" t="n">
-        <v>148.5236484350126</v>
+        <v>41.34592351285468</v>
       </c>
       <c r="E16" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>44978</v>
@@ -773,39 +773,39 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44988</v>
+        <v>44985</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.770480007045137</v>
+        <v>47.52244862231031</v>
       </c>
       <c r="C17" t="n">
-        <v>-101.5575127789623</v>
+        <v>-45.59112220611474</v>
       </c>
       <c r="D17" t="n">
-        <v>96.71630013265151</v>
+        <v>147.4531726535062</v>
       </c>
       <c r="E17" t="n">
         <v>40</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44992</v>
+        <v>44988</v>
       </c>
       <c r="B18" t="n">
-        <v>55.84513414003748</v>
+        <v>-3.137227375275074</v>
       </c>
       <c r="C18" t="n">
-        <v>-46.48849651607642</v>
+        <v>-98.73277267495554</v>
       </c>
       <c r="D18" t="n">
-        <v>153.9394689428248</v>
+        <v>92.20075066450892</v>
       </c>
       <c r="E18" t="n">
-        <v>180</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>44985</v>
@@ -813,201 +813,221 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
       <c r="B19" t="n">
-        <v>62.98927756963982</v>
+        <v>59.46147496148362</v>
       </c>
       <c r="C19" t="n">
-        <v>-39.45759948303692</v>
+        <v>-42.6109975891902</v>
       </c>
       <c r="D19" t="n">
-        <v>169.5753435560961</v>
+        <v>159.3105909390205</v>
       </c>
       <c r="E19" t="n">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
       <c r="B20" t="n">
-        <v>53.61584569811771</v>
+        <v>70.60443541237905</v>
       </c>
       <c r="C20" t="n">
-        <v>-40.5805468354006</v>
+        <v>-23.96854571168923</v>
       </c>
       <c r="D20" t="n">
-        <v>162.1776883901453</v>
+        <v>167.9677774579438</v>
       </c>
       <c r="E20" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44999</v>
+        <v>44992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
       <c r="B21" t="n">
-        <v>65.2244384157185</v>
+        <v>62.056720056589</v>
       </c>
       <c r="C21" t="n">
-        <v>-37.46755890280617</v>
+        <v>-37.29348341845227</v>
       </c>
       <c r="D21" t="n">
-        <v>166.2275463681024</v>
+        <v>168.2149002873443</v>
       </c>
       <c r="E21" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
       <c r="B22" t="n">
-        <v>92.48097046371485</v>
+        <v>67.25036660781966</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.273014374223312</v>
+        <v>-33.26862849608385</v>
       </c>
       <c r="D22" t="n">
-        <v>189.0612928530658</v>
+        <v>166.6091605722071</v>
       </c>
       <c r="E22" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45013</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
       <c r="B23" t="n">
-        <v>128.303083532324</v>
+        <v>93.85237688148618</v>
       </c>
       <c r="C23" t="n">
-        <v>30.93369781544865</v>
+        <v>-4.076993023209782</v>
       </c>
       <c r="D23" t="n">
-        <v>235.3946059455965</v>
+        <v>187.6669259049956</v>
       </c>
       <c r="E23" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
       <c r="B24" t="n">
-        <v>152.6408945393436</v>
+        <v>123.0668381169501</v>
       </c>
       <c r="C24" t="n">
-        <v>54.27176060188796</v>
+        <v>23.54781376534668</v>
       </c>
       <c r="D24" t="n">
-        <v>252.8650461933861</v>
+        <v>232.2415212184466</v>
       </c>
       <c r="E24" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45040</v>
+        <v>45034</v>
       </c>
       <c r="B25" t="n">
-        <v>134.9042665886195</v>
+        <v>151.2364462553577</v>
       </c>
       <c r="C25" t="n">
-        <v>36.51489561343635</v>
+        <v>52.20386275586309</v>
       </c>
       <c r="D25" t="n">
-        <v>236.5325293811518</v>
+        <v>255.3838675989023</v>
       </c>
       <c r="E25" t="n">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B26" t="n">
-        <v>159.9143170864482</v>
+        <v>134.3551661039059</v>
       </c>
       <c r="C26" t="n">
-        <v>59.33452819859312</v>
+        <v>38.42413888605817</v>
       </c>
       <c r="D26" t="n">
-        <v>265.7217367380826</v>
+        <v>227.2171181200844</v>
       </c>
       <c r="E26" t="n">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B27" t="n">
-        <v>124.3758605857001</v>
+        <v>161.3927734185692</v>
       </c>
       <c r="C27" t="n">
-        <v>14.62467154193618</v>
+        <v>59.72274144862341</v>
       </c>
       <c r="D27" t="n">
-        <v>219.8415064303038</v>
+        <v>265.9138853899032</v>
       </c>
       <c r="E27" t="n">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B28" t="n">
+        <v>119.5890925125071</v>
+      </c>
+      <c r="C28" t="n">
+        <v>29.14215118740806</v>
+      </c>
+      <c r="D28" t="n">
+        <v>222.1537444665267</v>
+      </c>
+      <c r="E28" t="n">
+        <v>80</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B28" t="n">
-        <v>75.3313802974867</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-18.65919069320229</v>
-      </c>
-      <c r="D28" t="n">
-        <v>171.8246191647931</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="B29" t="n">
+        <v>74.03496947192487</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-25.86216660045557</v>
+      </c>
+      <c r="D29" t="n">
+        <v>172.7420835571951</v>
+      </c>
+      <c r="E29" t="n">
         <v>50</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F29" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1077,22 +1097,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>5697.341467348241</v>
+        <v>5546.100793704068</v>
       </c>
       <c r="C2" t="n">
-        <v>75.4807357366649</v>
+        <v>74.47214777152642</v>
       </c>
       <c r="D2" t="n">
-        <v>62.88376327506554</v>
+        <v>61.84114077092857</v>
       </c>
       <c r="E2" t="n">
-        <v>2.356828276440028</v>
+        <v>2.297313323710286</v>
       </c>
       <c r="F2" t="n">
-        <v>1.037222110426574</v>
+        <v>1.024917074111478</v>
       </c>
       <c r="G2" t="n">
-        <v>1.738843666437428</v>
+        <v>1.715731276529179</v>
       </c>
       <c r="H2" t="n">
         <v>0.75</v>
@@ -1103,25 +1123,25 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>7370.269990198294</v>
+        <v>7347.01752235775</v>
       </c>
       <c r="C3" t="n">
-        <v>85.85027658777982</v>
+        <v>85.71474506966553</v>
       </c>
       <c r="D3" t="n">
-        <v>78.989748343223</v>
+        <v>78.74298733351134</v>
       </c>
       <c r="E3" t="n">
-        <v>1.385143993462146</v>
+        <v>1.356580213803174</v>
       </c>
       <c r="F3" t="n">
-        <v>0.696820965580641</v>
+        <v>0.7471388941389692</v>
       </c>
       <c r="G3" t="n">
-        <v>1.130026441381842</v>
+        <v>1.120370037252082</v>
       </c>
       <c r="H3" t="n">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4">
@@ -1129,25 +1149,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>7777.556744112313</v>
+        <v>7845.43926312738</v>
       </c>
       <c r="C4" t="n">
-        <v>88.19045721682315</v>
+        <v>88.57448426678747</v>
       </c>
       <c r="D4" t="n">
-        <v>60.94681206454345</v>
+        <v>61.82127508754388</v>
       </c>
       <c r="E4" t="n">
-        <v>0.603189422749324</v>
+        <v>0.5836306399080025</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5060480921612072</v>
+        <v>0.4912610436262808</v>
       </c>
       <c r="G4" t="n">
-        <v>0.652805072444723</v>
+        <v>0.6385027890500563</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8571428571428577</v>
+        <v>0.8181818181818183</v>
       </c>
     </row>
   </sheetData>
